--- a/static/测试数据_2.xlsx
+++ b/static/测试数据_2.xlsx
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
   <si>
     <t>Index</t>
   </si>
@@ -231,49 +231,18 @@
     <t>Call connected</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3.263s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.082s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.097s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.890s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.968s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.896s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.881s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.192s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.809s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.123s</t>
-  </si>
-  <si>
-    <t>Call attempt</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t xml:space="preserve"> 5.850s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -281,7 +250,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -290,7 +259,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -299,7 +268,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -308,7 +277,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -317,7 +286,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -325,7 +294,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -333,7 +302,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -341,7 +310,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -349,7 +318,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -358,7 +327,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -367,7 +336,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -375,7 +344,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -384,7 +353,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -392,7 +361,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -401,7 +370,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -410,7 +379,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -418,14 +387,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -447,12 +416,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Cordia New"/>
-      <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -460,7 +423,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -901,28 +864,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="43"/>
@@ -1278,18 +1240,18 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="6" max="6" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="81">
+    <row r="1" spans="1:21" ht="94.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1348,915 +1310,1607 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2">
+    <row r="2" spans="1:21">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.59033626157407404</v>
-      </c>
-      <c r="D2">
-        <v>121.48812</v>
-      </c>
-      <c r="E2">
-        <v>31.190570000000001</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.5455092592592593</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.54552083333333334</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.54553240740740738</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.54554398148148142</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.54555555555555557</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.54556712962962961</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.54557870370370376</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.5455902777777778</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.54559120370370373</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.54560185185185184</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.54561342592592588</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K12" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L12" s="2">
+        <v>22</v>
+      </c>
+      <c r="M12" s="2">
+        <v>61</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.54562500000000003</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K13" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L13" s="2">
+        <v>22</v>
+      </c>
+      <c r="M13" s="2">
+        <v>61</v>
+      </c>
+      <c r="N13" s="2">
+        <v>-58</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.54563657407407407</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K14" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L14" s="2">
+        <v>22</v>
+      </c>
+      <c r="M14" s="2">
+        <v>61</v>
+      </c>
+      <c r="N14" s="2">
+        <v>-61</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.54564814814814822</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K15" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L15" s="2">
+        <v>22</v>
+      </c>
+      <c r="M15" s="2">
+        <v>61</v>
+      </c>
+      <c r="N15" s="2">
+        <v>-59.5</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.54565912037037034</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K16" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L16" s="2">
+        <v>22</v>
+      </c>
+      <c r="M16" s="2">
+        <v>61</v>
+      </c>
+      <c r="N16" s="2">
+        <v>-62</v>
+      </c>
+      <c r="O16" s="2">
+        <v>7</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.54565972222222225</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K17" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L17" s="2">
+        <v>22</v>
+      </c>
+      <c r="M17" s="2">
+        <v>61</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.54567129629629629</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K18" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L18" s="2">
+        <v>22</v>
+      </c>
+      <c r="M18" s="2">
+        <v>61</v>
+      </c>
+      <c r="N18" s="2">
+        <v>-60.332999999999998</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.54568287037037033</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K19" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L19" s="2">
+        <v>22</v>
+      </c>
+      <c r="M19" s="2">
+        <v>61</v>
+      </c>
+      <c r="N19" s="2">
+        <v>-69</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.54569444444444437</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K20" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L20" s="2">
+        <v>22</v>
+      </c>
+      <c r="M20" s="2">
+        <v>61</v>
+      </c>
+      <c r="N20" s="2">
+        <v>-64.667000000000002</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.54570601851851852</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K21" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L21" s="2">
+        <v>22</v>
+      </c>
+      <c r="M21" s="2">
+        <v>61</v>
+      </c>
+      <c r="N21" s="2">
+        <v>-69.5</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.54571759259259256</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K22" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L22" s="2">
+        <v>22</v>
+      </c>
+      <c r="M22" s="2">
+        <v>61</v>
+      </c>
+      <c r="N22" s="2">
+        <v>-65.5</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.54572916666666671</v>
+      </c>
+      <c r="D23" s="2">
+        <v>121.51908</v>
+      </c>
+      <c r="E23" s="2">
+        <v>31.284770000000002</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
+        <v>31.284765</v>
+      </c>
+      <c r="I23" s="2">
+        <v>121.519081</v>
+      </c>
+      <c r="J23" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K23" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L23" s="2">
+        <v>22</v>
+      </c>
+      <c r="M23" s="2">
+        <v>61</v>
+      </c>
+      <c r="N23" s="2">
+        <v>-64.5</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.54574074074074075</v>
+      </c>
+      <c r="D24" s="2">
+        <v>121.51907</v>
+      </c>
+      <c r="E24" s="2">
+        <v>31.284590000000001</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2">
+        <v>31.284593999999998</v>
+      </c>
+      <c r="I24" s="2">
+        <v>121.51907300000001</v>
+      </c>
+      <c r="J24" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K24" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L24" s="2">
+        <v>22</v>
+      </c>
+      <c r="M24" s="2">
+        <v>61</v>
+      </c>
+      <c r="N24" s="2">
+        <v>-68</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.54575231481481479</v>
+      </c>
+      <c r="D25" s="2">
+        <v>121.51909999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>31.284520000000001</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2">
+        <v>31.284519</v>
+      </c>
+      <c r="I25" s="2">
+        <v>121.519096</v>
+      </c>
+      <c r="J25" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K25" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L25" s="2">
+        <v>22</v>
+      </c>
+      <c r="M25" s="2">
+        <v>61</v>
+      </c>
+      <c r="N25" s="2">
+        <v>-68</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.54576388888888883</v>
+      </c>
+      <c r="D26" s="2">
+        <v>121.51909999999999</v>
+      </c>
+      <c r="E26" s="2">
+        <v>31.28445</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2">
+        <v>31.284454</v>
+      </c>
+      <c r="I26" s="2">
+        <v>121.519096</v>
+      </c>
+      <c r="J26" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K26" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L26" s="2">
+        <v>22</v>
+      </c>
+      <c r="M26" s="2">
+        <v>61</v>
+      </c>
+      <c r="N26" s="2">
+        <v>-70</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.54577546296296298</v>
+      </c>
+      <c r="D27" s="2">
+        <v>121.51913</v>
+      </c>
+      <c r="E27" s="2">
+        <v>31.284400000000002</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2">
+        <v>31.284396999999998</v>
+      </c>
+      <c r="I27" s="2">
+        <v>121.519127</v>
+      </c>
+      <c r="J27" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K27" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L27" s="2">
+        <v>22</v>
+      </c>
+      <c r="M27" s="2">
+        <v>61</v>
+      </c>
+      <c r="N27" s="2">
+        <v>-69</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.54578703703703701</v>
+      </c>
+      <c r="D28" s="2">
+        <v>121.51917</v>
+      </c>
+      <c r="E28" s="2">
+        <v>31.284320000000001</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2">
+        <v>31.284324999999999</v>
+      </c>
+      <c r="I28" s="2">
+        <v>121.519165</v>
+      </c>
+      <c r="J28" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K28" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L28" s="2">
+        <v>22</v>
+      </c>
+      <c r="M28" s="2">
+        <v>61</v>
+      </c>
+      <c r="N28" s="2">
+        <v>-72</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.54579861111111116</v>
+      </c>
+      <c r="D29" s="2">
+        <v>121.5192</v>
+      </c>
+      <c r="E29" s="2">
+        <v>31.28426</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2">
+        <v>31.284255999999999</v>
+      </c>
+      <c r="I29" s="2">
+        <v>121.519203</v>
+      </c>
+      <c r="J29" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K29" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L29" s="2">
+        <v>22</v>
+      </c>
+      <c r="M29" s="2">
+        <v>61</v>
+      </c>
+      <c r="N29" s="2">
+        <v>-67</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.5458101851851852</v>
+      </c>
+      <c r="D30" s="2">
+        <v>121.51922999999999</v>
+      </c>
+      <c r="E30" s="2">
+        <v>31.284179999999999</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2">
+        <v>31.284179999999999</v>
+      </c>
+      <c r="I30" s="2">
+        <v>121.519234</v>
+      </c>
+      <c r="J30" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K30" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L30" s="2">
+        <v>22</v>
+      </c>
+      <c r="M30" s="2">
+        <v>61</v>
+      </c>
+      <c r="N30" s="2">
+        <v>-75.5</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.54582175925925924</v>
+      </c>
+      <c r="D31" s="2">
+        <v>121.51927999999999</v>
+      </c>
+      <c r="E31" s="2">
+        <v>31.284079999999999</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2">
+        <v>31.284078999999998</v>
+      </c>
+      <c r="I31" s="2">
+        <v>121.519279</v>
+      </c>
+      <c r="J31" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K31" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L31" s="2">
+        <v>22</v>
+      </c>
+      <c r="M31" s="2">
+        <v>61</v>
+      </c>
+      <c r="N31" s="2">
+        <v>-76</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.54583333333333328</v>
+      </c>
+      <c r="D32" s="2">
+        <v>121.51933</v>
+      </c>
+      <c r="E32" s="2">
+        <v>31.283989999999999</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2">
+        <v>31.283985000000001</v>
+      </c>
+      <c r="I32" s="2">
+        <v>121.51932499999999</v>
+      </c>
+      <c r="J32" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K32" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L32" s="2">
+        <v>22</v>
+      </c>
+      <c r="M32" s="2">
+        <v>61</v>
+      </c>
+      <c r="N32" s="2">
+        <v>-77</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.54584490740740743</v>
+      </c>
+      <c r="D33" s="2">
+        <v>121.51936000000001</v>
+      </c>
+      <c r="E33" s="2">
+        <v>31.28389</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2">
+        <v>31.283885999999999</v>
+      </c>
+      <c r="I33" s="2">
+        <v>121.519363</v>
+      </c>
+      <c r="J33" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K33" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L33" s="2">
+        <v>22</v>
+      </c>
+      <c r="M33" s="2">
+        <v>61</v>
+      </c>
+      <c r="N33" s="2">
+        <v>-77.667000000000002</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2">
-        <v>31.190570999999998</v>
-      </c>
-      <c r="I2">
-        <v>121.48812100000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.59037520833333335</v>
-      </c>
-      <c r="D3">
-        <v>121.48812</v>
-      </c>
-      <c r="E3">
-        <v>31.190570000000001</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.54585648148148147</v>
+      </c>
+      <c r="D34" s="2">
+        <v>121.51940999999999</v>
+      </c>
+      <c r="E34" s="2">
+        <v>31.28378</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2">
+        <v>31.283783</v>
+      </c>
+      <c r="I34" s="2">
+        <v>121.519409</v>
+      </c>
+      <c r="J34" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K34" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L34" s="2">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>31.190570999999998</v>
-      </c>
-      <c r="I3">
-        <v>121.48812100000001</v>
-      </c>
-      <c r="P3">
-        <v>-54.332999999999998</v>
-      </c>
-      <c r="Q3">
-        <v>1.167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.59059789351851855</v>
-      </c>
-      <c r="D4">
-        <v>121.48812</v>
-      </c>
-      <c r="E4">
-        <v>31.190570000000001</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>31.190570999999998</v>
-      </c>
-      <c r="I4">
-        <v>121.48812100000001</v>
-      </c>
-      <c r="J4">
-        <v>6184</v>
-      </c>
-      <c r="K4">
-        <v>55666</v>
-      </c>
-      <c r="L4">
+      <c r="M34" s="2">
+        <v>61</v>
+      </c>
+      <c r="N34" s="2">
+        <v>-71</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.54586805555555562</v>
+      </c>
+      <c r="D35" s="2">
+        <v>121.51946</v>
+      </c>
+      <c r="E35" s="2">
+        <v>31.283670000000001</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2">
+        <v>31.283674000000001</v>
+      </c>
+      <c r="I35" s="2">
+        <v>121.519463</v>
+      </c>
+      <c r="J35" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K35" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L35" s="2">
+        <v>22</v>
+      </c>
+      <c r="M35" s="2">
+        <v>61</v>
+      </c>
+      <c r="N35" s="2">
+        <v>-73</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.54587962962962966</v>
+      </c>
+      <c r="D36" s="2">
+        <v>121.51953</v>
+      </c>
+      <c r="E36" s="2">
+        <v>31.283580000000001</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2">
+        <v>31.283574999999999</v>
+      </c>
+      <c r="I36" s="2">
+        <v>121.519531</v>
+      </c>
+      <c r="J36" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K36" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L36" s="2">
+        <v>22</v>
+      </c>
+      <c r="M36" s="2">
+        <v>61</v>
+      </c>
+      <c r="N36" s="2">
+        <v>-76</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <v>-54.832999999999998</v>
-      </c>
-      <c r="Q4">
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.5458912037037037</v>
+      </c>
+      <c r="D37" s="2">
+        <v>121.51958</v>
+      </c>
+      <c r="E37" s="2">
+        <v>31.283470000000001</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2">
+        <v>31.283467999999999</v>
+      </c>
+      <c r="I37" s="2">
+        <v>121.51958500000001</v>
+      </c>
+      <c r="J37" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K37" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L37" s="2">
+        <v>22</v>
+      </c>
+      <c r="M37" s="2">
+        <v>61</v>
+      </c>
+      <c r="N37" s="2">
+        <v>-75</v>
+      </c>
+      <c r="O37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.59063643518518516</v>
-      </c>
-      <c r="D5">
-        <v>121.48812</v>
-      </c>
-      <c r="E5">
-        <v>31.190570000000001</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.54590277777777774</v>
+      </c>
+      <c r="D38" s="2">
+        <v>121.51965</v>
+      </c>
+      <c r="E38" s="2">
+        <v>31.283349999999999</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2">
+        <v>31.283349999999999</v>
+      </c>
+      <c r="I38" s="2">
+        <v>121.51965300000001</v>
+      </c>
+      <c r="J38" s="2">
+        <v>6362</v>
+      </c>
+      <c r="K38" s="2">
+        <v>42002</v>
+      </c>
+      <c r="L38" s="2">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5">
-        <v>31.190570999999998</v>
-      </c>
-      <c r="I5">
-        <v>121.48812100000001</v>
-      </c>
-      <c r="J5">
-        <v>6184</v>
-      </c>
-      <c r="K5">
-        <v>55666</v>
-      </c>
-      <c r="L5">
-        <v>36</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="P5">
-        <v>-58.167000000000002</v>
-      </c>
-      <c r="Q5">
-        <v>1.167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.59087753472222226</v>
-      </c>
-      <c r="D6">
-        <v>121.48801</v>
-      </c>
-      <c r="E6">
-        <v>31.190670000000001</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6">
-        <v>31.190670000000001</v>
-      </c>
-      <c r="I6">
-        <v>121.488007</v>
-      </c>
-      <c r="J6">
-        <v>6184</v>
-      </c>
-      <c r="K6">
-        <v>55666</v>
-      </c>
-      <c r="L6">
-        <v>36</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="P6">
-        <v>-60.167000000000002</v>
-      </c>
-      <c r="Q6">
+      <c r="M38" s="2">
+        <v>61</v>
+      </c>
+      <c r="N38" s="2">
+        <v>-76.5</v>
+      </c>
+      <c r="O38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.59091358796296289</v>
-      </c>
-      <c r="D7">
-        <v>121.48801</v>
-      </c>
-      <c r="E7">
-        <v>31.190670000000001</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7">
-        <v>31.190670000000001</v>
-      </c>
-      <c r="I7">
-        <v>121.488007</v>
-      </c>
-      <c r="J7">
-        <v>6184</v>
-      </c>
-      <c r="K7">
-        <v>55666</v>
-      </c>
-      <c r="L7">
-        <v>36</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="P7">
-        <v>-57.5</v>
-      </c>
-      <c r="Q7">
-        <v>1.167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.59115054398148148</v>
-      </c>
-      <c r="D8">
-        <v>121.48801</v>
-      </c>
-      <c r="E8">
-        <v>31.190670000000001</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8">
-        <v>31.190670000000001</v>
-      </c>
-      <c r="I8">
-        <v>121.488007</v>
-      </c>
-      <c r="J8">
-        <v>6184</v>
-      </c>
-      <c r="K8">
-        <v>55666</v>
-      </c>
-      <c r="L8">
-        <v>36</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="P8">
-        <v>-56.363999999999997</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.59118571759259264</v>
-      </c>
-      <c r="D9">
-        <v>121.48801</v>
-      </c>
-      <c r="E9">
-        <v>31.190670000000001</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9">
-        <v>31.190670000000001</v>
-      </c>
-      <c r="I9">
-        <v>121.488007</v>
-      </c>
-      <c r="J9">
-        <v>6184</v>
-      </c>
-      <c r="K9">
-        <v>55666</v>
-      </c>
-      <c r="L9">
-        <v>36</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="P9">
-        <v>-55.4</v>
-      </c>
-      <c r="Q9">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.59140935185185184</v>
-      </c>
-      <c r="D10">
-        <v>121.48792</v>
-      </c>
-      <c r="E10">
-        <v>31.190650000000002</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10">
-        <v>31.190650999999999</v>
-      </c>
-      <c r="I10">
-        <v>121.48792299999999</v>
-      </c>
-      <c r="J10">
-        <v>6184</v>
-      </c>
-      <c r="K10">
-        <v>55666</v>
-      </c>
-      <c r="L10">
-        <v>36</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="P10">
-        <v>-56.5</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.59144565972222229</v>
-      </c>
-      <c r="D11">
-        <v>121.48792</v>
-      </c>
-      <c r="E11">
-        <v>31.190650000000002</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11">
-        <v>31.190650999999999</v>
-      </c>
-      <c r="I11">
-        <v>121.48792299999999</v>
-      </c>
-      <c r="J11">
-        <v>6184</v>
-      </c>
-      <c r="K11">
-        <v>55666</v>
-      </c>
-      <c r="L11">
-        <v>36</v>
-      </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="P11">
-        <v>-54.6</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.59167288194444445</v>
-      </c>
-      <c r="D12">
-        <v>121.48792</v>
-      </c>
-      <c r="E12">
-        <v>31.190650000000002</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12">
-        <v>31.190650999999999</v>
-      </c>
-      <c r="I12">
-        <v>121.48792299999999</v>
-      </c>
-      <c r="J12">
-        <v>6184</v>
-      </c>
-      <c r="K12">
-        <v>55666</v>
-      </c>
-      <c r="L12">
-        <v>36</v>
-      </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-      <c r="P12">
-        <v>-55.768999999999998</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.59170637731481479</v>
-      </c>
-      <c r="D13">
-        <v>121.48792</v>
-      </c>
-      <c r="E13">
-        <v>31.190650000000002</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13">
-        <v>31.190650999999999</v>
-      </c>
-      <c r="I13">
-        <v>121.48792299999999</v>
-      </c>
-      <c r="J13">
-        <v>6184</v>
-      </c>
-      <c r="K13">
-        <v>55666</v>
-      </c>
-      <c r="L13">
-        <v>36</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
-      <c r="P13">
-        <v>-55.6</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.59193164351851857</v>
-      </c>
-      <c r="D14">
-        <v>121.48792</v>
-      </c>
-      <c r="E14">
-        <v>31.190650000000002</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14">
-        <v>31.190650999999999</v>
-      </c>
-      <c r="I14">
-        <v>121.48792299999999</v>
-      </c>
-      <c r="J14">
-        <v>6184</v>
-      </c>
-      <c r="K14">
-        <v>55666</v>
-      </c>
-      <c r="L14">
-        <v>36</v>
-      </c>
-      <c r="M14">
-        <v>3</v>
-      </c>
-      <c r="P14">
-        <v>-57.231000000000002</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.59196675925925923</v>
-      </c>
-      <c r="D15">
-        <v>121.48792</v>
-      </c>
-      <c r="E15">
-        <v>31.190650000000002</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15">
-        <v>31.190650999999999</v>
-      </c>
-      <c r="I15">
-        <v>121.48792299999999</v>
-      </c>
-      <c r="J15">
-        <v>6184</v>
-      </c>
-      <c r="K15">
-        <v>55666</v>
-      </c>
-      <c r="L15">
-        <v>36</v>
-      </c>
-      <c r="M15">
-        <v>3</v>
-      </c>
-      <c r="P15">
-        <v>-57</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.59219628472222219</v>
-      </c>
-      <c r="D16">
-        <v>121.48792</v>
-      </c>
-      <c r="E16">
-        <v>31.190650000000002</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16">
-        <v>31.190650999999999</v>
-      </c>
-      <c r="I16">
-        <v>121.48792299999999</v>
-      </c>
-      <c r="J16">
-        <v>6184</v>
-      </c>
-      <c r="K16">
-        <v>55666</v>
-      </c>
-      <c r="L16">
-        <v>36</v>
-      </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="P16">
-        <v>-56.832999999999998</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.59223379629629636</v>
-      </c>
-      <c r="D17">
-        <v>121.48792</v>
-      </c>
-      <c r="E17">
-        <v>31.190650000000002</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17">
-        <v>31.190650999999999</v>
-      </c>
-      <c r="I17">
-        <v>121.48792299999999</v>
-      </c>
-      <c r="J17">
-        <v>6184</v>
-      </c>
-      <c r="K17">
-        <v>55666</v>
-      </c>
-      <c r="L17">
-        <v>36</v>
-      </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
-      <c r="P17">
-        <v>-54.167000000000002</v>
-      </c>
-      <c r="Q17">
-        <v>1.167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.59247508101851853</v>
-      </c>
-      <c r="D18">
-        <v>121.48802999999999</v>
-      </c>
-      <c r="E18">
-        <v>31.190550000000002</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18">
-        <v>31.190550000000002</v>
-      </c>
-      <c r="I18">
-        <v>121.488029</v>
-      </c>
-      <c r="J18">
-        <v>6184</v>
-      </c>
-      <c r="K18">
-        <v>55666</v>
-      </c>
-      <c r="L18">
-        <v>36</v>
-      </c>
-      <c r="M18">
-        <v>3</v>
-      </c>
-      <c r="P18">
-        <v>-63.25</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.59251019675925931</v>
-      </c>
-      <c r="D19">
-        <v>121.48802999999999</v>
-      </c>
-      <c r="E19">
-        <v>31.190550000000002</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19">
-        <v>31.190550000000002</v>
-      </c>
-      <c r="I19">
-        <v>121.488029</v>
-      </c>
-      <c r="J19">
-        <v>6184</v>
-      </c>
-      <c r="K19">
-        <v>55666</v>
-      </c>
-      <c r="L19">
-        <v>36</v>
-      </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
-      <c r="P19">
-        <v>-57.167000000000002</v>
-      </c>
-      <c r="Q19">
-        <v>2.3330000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.59275030092592595</v>
-      </c>
-      <c r="D20">
-        <v>121.48804</v>
-      </c>
-      <c r="E20">
-        <v>31.190639999999998</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20">
-        <v>31.190643000000001</v>
-      </c>
-      <c r="I20">
-        <v>121.48803700000001</v>
-      </c>
-      <c r="J20">
-        <v>6184</v>
-      </c>
-      <c r="K20">
-        <v>55666</v>
-      </c>
-      <c r="L20">
-        <v>36</v>
-      </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-      <c r="P20">
-        <v>-61.845999999999997</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.5927877777777778</v>
-      </c>
-      <c r="D21">
-        <v>121.48804</v>
-      </c>
-      <c r="E21">
-        <v>31.190639999999998</v>
-      </c>
-      <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21">
-        <v>31.190643000000001</v>
-      </c>
-      <c r="I21">
-        <v>121.48803700000001</v>
-      </c>
-      <c r="J21">
-        <v>6184</v>
-      </c>
-      <c r="K21">
-        <v>55666</v>
-      </c>
-      <c r="L21">
-        <v>36</v>
-      </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="P21">
-        <v>-66.167000000000002</v>
-      </c>
-      <c r="Q21">
-        <v>1.167</v>
-      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.54591435185185189</v>
+      </c>
+      <c r="D39" s="2">
+        <v>121.51971</v>
+      </c>
+      <c r="E39" s="2">
+        <v>31.28323</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2">
+        <v>31.283232000000002</v>
+      </c>
+      <c r="I39" s="2">
+        <v>121.51971399999999</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/static/测试数据_2.xlsx
+++ b/static/测试数据_2.xlsx
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="24">
   <si>
     <t>Index</t>
   </si>
@@ -231,7 +231,7 @@
     <t>Call connected</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.850s</t>
+    <t xml:space="preserve"> 4.095s</t>
   </si>
 </sst>
 </file>
@@ -1240,10 +1240,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:U49"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1251,7 +1251,7 @@
     <col min="6" max="6" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="94.5">
+    <row r="1" spans="1:19" ht="94.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,1607 +1310,2000 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>5829</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="3">
-        <v>0.5455092592592593</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+        <v>0.61113425925925924</v>
+      </c>
+      <c r="D2" s="2">
+        <v>121.51606</v>
+      </c>
+      <c r="E2" s="2">
+        <v>31.210840000000001</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="2">
+        <v>31.210837999999999</v>
+      </c>
+      <c r="I2" s="2">
+        <v>121.51606</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:21">
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>5830</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="3">
-        <v>0.54552083333333334</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+        <v>0.61114583333333339</v>
+      </c>
+      <c r="D3" s="2">
+        <v>121.51606</v>
+      </c>
+      <c r="E3" s="2">
+        <v>31.210840000000001</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="2">
+        <v>31.210837999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>121.51606</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:21">
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>5831</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3">
-        <v>0.54553240740740738</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+        <v>0.61115740740740743</v>
+      </c>
+      <c r="D4" s="2">
+        <v>121.51606</v>
+      </c>
+      <c r="E4" s="2">
+        <v>31.210840000000001</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="2">
+        <v>31.210837999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>121.51606</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:21">
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>5832</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="3">
-        <v>0.54554398148148142</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+        <v>0.61116898148148147</v>
+      </c>
+      <c r="D5" s="2">
+        <v>121.51607</v>
+      </c>
+      <c r="E5" s="2">
+        <v>31.210840000000001</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="2">
+        <v>31.210844000000002</v>
+      </c>
+      <c r="I5" s="2">
+        <v>121.516068</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:21">
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>5833</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="3">
-        <v>0.54555555555555557</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+        <v>0.6111805555555555</v>
+      </c>
+      <c r="D6" s="2">
+        <v>121.51609999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>31.21086</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="2">
+        <v>31.210858999999999</v>
+      </c>
+      <c r="I6" s="2">
+        <v>121.516098</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5834</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="3">
-        <v>0.54556712962962961</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+        <v>0.61119212962962965</v>
+      </c>
+      <c r="D7" s="2">
+        <v>121.51609999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>31.21086</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="2">
+        <v>31.210857000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>121.516098</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:21">
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>5835</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="3">
-        <v>0.54557870370370376</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+        <v>0.61120370370370369</v>
+      </c>
+      <c r="D8" s="2">
+        <v>121.51609999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>31.21086</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="2">
+        <v>31.210857000000001</v>
+      </c>
+      <c r="I8" s="2">
+        <v>121.516098</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="1:21">
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>5836</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="3">
-        <v>0.5455902777777778</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+        <v>0.61121527777777784</v>
+      </c>
+      <c r="D9" s="2">
+        <v>121.51611</v>
+      </c>
+      <c r="E9" s="2">
+        <v>31.210850000000001</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="2">
+        <v>31.210854000000001</v>
+      </c>
+      <c r="I9" s="2">
+        <v>121.51610599999999</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21">
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>5837</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="3">
-        <v>0.54559120370370373</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+        <v>0.61122685185185188</v>
+      </c>
+      <c r="D10" s="2">
+        <v>121.51611</v>
+      </c>
+      <c r="E10" s="2">
+        <v>31.210850000000001</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
+        <v>31.210847999999999</v>
+      </c>
+      <c r="I10" s="2">
+        <v>121.51610599999999</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21">
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>5838</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="3">
-        <v>0.54560185185185184</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+        <v>0.61123842592592592</v>
+      </c>
+      <c r="D11" s="2">
+        <v>121.51609999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>31.210850000000001</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="H11" s="2">
+        <v>31.210846</v>
+      </c>
+      <c r="I11" s="2">
+        <v>121.516098</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21">
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>5839</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="3">
-        <v>0.54561342592592588</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+        <v>0.61124999999999996</v>
+      </c>
+      <c r="D12" s="2">
+        <v>121.51609999999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>31.210840000000001</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2">
-        <v>6362</v>
-      </c>
-      <c r="K12" s="2">
-        <v>42002</v>
-      </c>
-      <c r="L12" s="2">
-        <v>22</v>
-      </c>
-      <c r="M12" s="2">
-        <v>61</v>
-      </c>
+      <c r="H12" s="2">
+        <v>31.210842</v>
+      </c>
+      <c r="I12" s="2">
+        <v>121.516098</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-    </row>
-    <row r="13" spans="1:21">
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>5840</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="3">
-        <v>0.54562500000000003</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+        <v>0.61126157407407411</v>
+      </c>
+      <c r="D13" s="2">
+        <v>121.51609999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>31.210840000000001</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2">
-        <v>6362</v>
-      </c>
-      <c r="K13" s="2">
-        <v>42002</v>
-      </c>
-      <c r="L13" s="2">
-        <v>22</v>
-      </c>
-      <c r="M13" s="2">
-        <v>61</v>
-      </c>
-      <c r="N13" s="2">
-        <v>-58</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="H13" s="2">
+        <v>31.210837999999999</v>
+      </c>
+      <c r="I13" s="2">
+        <v>121.516098</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>5841</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="3">
-        <v>0.54563657407407407</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+        <v>0.61127314814814815</v>
+      </c>
+      <c r="D14" s="2">
+        <v>121.51607</v>
+      </c>
+      <c r="E14" s="2">
+        <v>31.210819999999998</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2">
-        <v>6362</v>
-      </c>
-      <c r="K14" s="2">
-        <v>42002</v>
-      </c>
-      <c r="L14" s="2">
-        <v>22</v>
-      </c>
-      <c r="M14" s="2">
-        <v>61</v>
-      </c>
-      <c r="N14" s="2">
-        <v>-61</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="H14" s="2">
+        <v>31.210816999999999</v>
+      </c>
+      <c r="I14" s="2">
+        <v>121.516068</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>5842</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3">
-        <v>0.54564814814814822</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+        <v>0.61128472222222219</v>
+      </c>
+      <c r="D15" s="2">
+        <v>121.51607</v>
+      </c>
+      <c r="E15" s="2">
+        <v>31.210819999999998</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2">
-        <v>6362</v>
-      </c>
-      <c r="K15" s="2">
-        <v>42002</v>
-      </c>
-      <c r="L15" s="2">
-        <v>22</v>
-      </c>
-      <c r="M15" s="2">
-        <v>61</v>
-      </c>
-      <c r="N15" s="2">
-        <v>-59.5</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="H15" s="2">
+        <v>31.210816999999999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>121.516068</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>5843</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="3">
-        <v>0.54565912037037034</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2">
-        <v>6362</v>
-      </c>
-      <c r="K16" s="2">
-        <v>42002</v>
-      </c>
-      <c r="L16" s="2">
-        <v>22</v>
-      </c>
-      <c r="M16" s="2">
-        <v>61</v>
-      </c>
-      <c r="N16" s="2">
-        <v>-62</v>
-      </c>
-      <c r="O16" s="2">
-        <v>7</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="1:21">
+        <v>0.61129629629629634</v>
+      </c>
+      <c r="D16" s="2">
+        <v>121.51608</v>
+      </c>
+      <c r="E16" s="2">
+        <v>31.210819999999998</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>31.210823000000001</v>
+      </c>
+      <c r="I16" s="2">
+        <v>121.516075</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>5844</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3">
-        <v>0.54565972222222225</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2">
-        <v>6362</v>
-      </c>
-      <c r="K17" s="2">
-        <v>42002</v>
-      </c>
-      <c r="L17" s="2">
-        <v>22</v>
-      </c>
-      <c r="M17" s="2">
-        <v>61</v>
-      </c>
+        <v>0.61130768518518519</v>
+      </c>
+      <c r="D17" s="2">
+        <v>121.51608</v>
+      </c>
+      <c r="E17" s="2">
+        <v>31.210819999999998</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="2">
+        <v>31.210823000000001</v>
+      </c>
+      <c r="I17" s="2">
+        <v>121.516075</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="1:21">
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>5845</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="3">
-        <v>0.54567129629629629</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+        <v>0.61130787037037038</v>
+      </c>
+      <c r="D18" s="2">
+        <v>121.51608</v>
+      </c>
+      <c r="E18" s="2">
+        <v>31.210819999999998</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2">
-        <v>6362</v>
-      </c>
-      <c r="K18" s="2">
-        <v>42002</v>
-      </c>
-      <c r="L18" s="2">
-        <v>22</v>
-      </c>
-      <c r="M18" s="2">
-        <v>61</v>
-      </c>
-      <c r="N18" s="2">
-        <v>-60.332999999999998</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="H18" s="2">
+        <v>31.210823000000001</v>
+      </c>
+      <c r="I18" s="2">
+        <v>121.516075</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>5846</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="3">
-        <v>0.54568287037037033</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+        <v>0.61131944444444442</v>
+      </c>
+      <c r="D19" s="2">
+        <v>121.51608</v>
+      </c>
+      <c r="E19" s="2">
+        <v>31.210819999999998</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="H19" s="2">
+        <v>31.210823000000001</v>
+      </c>
+      <c r="I19" s="2">
+        <v>121.516075</v>
+      </c>
       <c r="J19" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K19" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L19" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M19" s="2">
-        <v>61</v>
-      </c>
-      <c r="N19" s="2">
-        <v>-69</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="1:21">
+        <v>64</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>5847</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="3">
-        <v>0.54569444444444437</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+        <v>0.61133101851851845</v>
+      </c>
+      <c r="D20" s="2">
+        <v>121.51607</v>
+      </c>
+      <c r="E20" s="2">
+        <v>31.210819999999998</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="H20" s="2">
+        <v>31.210823000000001</v>
+      </c>
+      <c r="I20" s="2">
+        <v>121.516068</v>
+      </c>
       <c r="J20" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K20" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L20" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M20" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N20" s="2">
-        <v>-64.667000000000002</v>
+        <v>-58</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="1:21">
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>5848</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="3">
-        <v>0.54570601851851852</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+        <v>0.6113425925925926</v>
+      </c>
+      <c r="D21" s="2">
+        <v>121.51607</v>
+      </c>
+      <c r="E21" s="2">
+        <v>31.210830000000001</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="H21" s="2">
+        <v>31.210826999999998</v>
+      </c>
+      <c r="I21" s="2">
+        <v>121.516068</v>
+      </c>
       <c r="J21" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K21" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L21" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M21" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N21" s="2">
-        <v>-69.5</v>
+        <v>-64.5</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="1:21">
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>5849</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="3">
-        <v>0.54571759259259256</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+        <v>0.61135416666666664</v>
+      </c>
+      <c r="D22" s="2">
+        <v>121.51607</v>
+      </c>
+      <c r="E22" s="2">
+        <v>31.210830000000001</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="H22" s="2">
+        <v>31.210826999999998</v>
+      </c>
+      <c r="I22" s="2">
+        <v>121.516068</v>
+      </c>
       <c r="J22" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K22" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L22" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M22" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N22" s="2">
-        <v>-65.5</v>
+        <v>-62.5</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
       </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-    </row>
-    <row r="23" spans="1:21">
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="2">
+        <v>5850</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.61135635416666667</v>
+      </c>
+      <c r="D23" s="2">
+        <v>121.51607</v>
+      </c>
+      <c r="E23" s="2">
+        <v>31.210830000000001</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.54572916666666671</v>
-      </c>
-      <c r="D23" s="2">
-        <v>121.51908</v>
-      </c>
-      <c r="E23" s="2">
-        <v>31.284770000000002</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H23" s="2">
-        <v>31.284765</v>
+        <v>31.210826999999998</v>
       </c>
       <c r="I23" s="2">
-        <v>121.519081</v>
+        <v>121.516068</v>
       </c>
       <c r="J23" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K23" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L23" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M23" s="2">
-        <v>61</v>
-      </c>
-      <c r="N23" s="2">
-        <v>-64.5</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-    </row>
-    <row r="24" spans="1:21">
+        <v>64</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>5851</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="3">
-        <v>0.54574074074074075</v>
+        <v>0.61136574074074079</v>
       </c>
       <c r="D24" s="2">
-        <v>121.51907</v>
+        <v>121.51609999999999</v>
       </c>
       <c r="E24" s="2">
-        <v>31.284590000000001</v>
+        <v>31.210850000000001</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2">
-        <v>31.284593999999998</v>
+        <v>31.210850000000001</v>
       </c>
       <c r="I24" s="2">
-        <v>121.51907300000001</v>
+        <v>121.516098</v>
       </c>
       <c r="J24" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K24" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L24" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M24" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N24" s="2">
-        <v>-68</v>
+        <v>-58</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-    </row>
-    <row r="25" spans="1:21">
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>5852</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="3">
-        <v>0.54575231481481479</v>
+        <v>0.61137731481481483</v>
       </c>
       <c r="D25" s="2">
-        <v>121.51909999999999</v>
+        <v>121.51608</v>
       </c>
       <c r="E25" s="2">
-        <v>31.284520000000001</v>
+        <v>31.210830000000001</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2">
-        <v>31.284519</v>
+        <v>31.210833000000001</v>
       </c>
       <c r="I25" s="2">
-        <v>121.519096</v>
+        <v>121.516075</v>
       </c>
       <c r="J25" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K25" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L25" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M25" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N25" s="2">
-        <v>-68</v>
+        <v>-54.5</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-    </row>
-    <row r="26" spans="1:21">
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>5853</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="3">
-        <v>0.54576388888888883</v>
+        <v>0.61138888888888887</v>
       </c>
       <c r="D26" s="2">
-        <v>121.51909999999999</v>
+        <v>121.51609999999999</v>
       </c>
       <c r="E26" s="2">
-        <v>31.28445</v>
+        <v>31.210850000000001</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2">
-        <v>31.284454</v>
+        <v>31.210854000000001</v>
       </c>
       <c r="I26" s="2">
-        <v>121.519096</v>
+        <v>121.516098</v>
       </c>
       <c r="J26" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K26" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L26" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M26" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N26" s="2">
-        <v>-70</v>
+        <v>-55</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
       </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-    </row>
-    <row r="27" spans="1:21">
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>5854</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="3">
-        <v>0.54577546296296298</v>
+        <v>0.61140046296296291</v>
       </c>
       <c r="D27" s="2">
-        <v>121.51913</v>
+        <v>121.51609999999999</v>
       </c>
       <c r="E27" s="2">
-        <v>31.284400000000002</v>
+        <v>31.21086</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2">
-        <v>31.284396999999998</v>
+        <v>31.210858999999999</v>
       </c>
       <c r="I27" s="2">
-        <v>121.519127</v>
+        <v>121.516098</v>
       </c>
       <c r="J27" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K27" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L27" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M27" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N27" s="2">
-        <v>-69</v>
+        <v>-60</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
       </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-    </row>
-    <row r="28" spans="1:21">
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>5855</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="3">
-        <v>0.54578703703703701</v>
+        <v>0.61141203703703706</v>
       </c>
       <c r="D28" s="2">
-        <v>121.51917</v>
+        <v>121.51611</v>
       </c>
       <c r="E28" s="2">
-        <v>31.284320000000001</v>
+        <v>31.21087</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2">
-        <v>31.284324999999999</v>
+        <v>31.210867</v>
       </c>
       <c r="I28" s="2">
-        <v>121.519165</v>
+        <v>121.51610599999999</v>
       </c>
       <c r="J28" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K28" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L28" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M28" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N28" s="2">
-        <v>-72</v>
+        <v>-60.5</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
       </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-    </row>
-    <row r="29" spans="1:21">
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>5856</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="3">
-        <v>0.54579861111111116</v>
+        <v>0.6114236111111111</v>
       </c>
       <c r="D29" s="2">
-        <v>121.5192</v>
+        <v>121.51611</v>
       </c>
       <c r="E29" s="2">
-        <v>31.28426</v>
+        <v>31.21087</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2">
-        <v>31.284255999999999</v>
+        <v>31.210872999999999</v>
       </c>
       <c r="I29" s="2">
-        <v>121.519203</v>
+        <v>121.516113</v>
       </c>
       <c r="J29" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K29" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L29" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M29" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N29" s="2">
-        <v>-67</v>
+        <v>-64</v>
       </c>
       <c r="O29" s="2">
         <v>0</v>
       </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-    </row>
-    <row r="30" spans="1:21">
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>5857</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="3">
-        <v>0.5458101851851852</v>
+        <v>0.61143518518518525</v>
       </c>
       <c r="D30" s="2">
-        <v>121.51922999999999</v>
+        <v>121.51609999999999</v>
       </c>
       <c r="E30" s="2">
-        <v>31.284179999999999</v>
+        <v>31.21086</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2">
-        <v>31.284179999999999</v>
+        <v>31.210861000000001</v>
       </c>
       <c r="I30" s="2">
-        <v>121.519234</v>
+        <v>121.516098</v>
       </c>
       <c r="J30" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K30" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L30" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M30" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N30" s="2">
-        <v>-75.5</v>
+        <v>-66</v>
       </c>
       <c r="O30" s="2">
         <v>0</v>
       </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-    </row>
-    <row r="31" spans="1:21">
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>5858</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="3">
-        <v>0.54582175925925924</v>
+        <v>0.61144675925925929</v>
       </c>
       <c r="D31" s="2">
-        <v>121.51927999999999</v>
+        <v>121.51609999999999</v>
       </c>
       <c r="E31" s="2">
-        <v>31.284079999999999</v>
+        <v>31.21087</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2">
-        <v>31.284078999999998</v>
+        <v>31.210864999999998</v>
       </c>
       <c r="I31" s="2">
-        <v>121.519279</v>
+        <v>121.516098</v>
       </c>
       <c r="J31" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K31" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L31" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M31" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N31" s="2">
-        <v>-76</v>
+        <v>-62.5</v>
       </c>
       <c r="O31" s="2">
         <v>0</v>
       </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-    </row>
-    <row r="32" spans="1:21">
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>5859</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="3">
-        <v>0.54583333333333328</v>
+        <v>0.61145833333333333</v>
       </c>
       <c r="D32" s="2">
-        <v>121.51933</v>
+        <v>121.51611</v>
       </c>
       <c r="E32" s="2">
-        <v>31.283989999999999</v>
+        <v>31.21087</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2">
-        <v>31.283985000000001</v>
+        <v>31.210871000000001</v>
       </c>
       <c r="I32" s="2">
-        <v>121.51932499999999</v>
+        <v>121.51610599999999</v>
       </c>
       <c r="J32" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K32" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L32" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M32" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N32" s="2">
-        <v>-77</v>
+        <v>-59.5</v>
       </c>
       <c r="O32" s="2">
         <v>0</v>
       </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-    </row>
-    <row r="33" spans="1:21">
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>5860</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="3">
-        <v>0.54584490740740743</v>
+        <v>0.61146990740740736</v>
       </c>
       <c r="D33" s="2">
-        <v>121.51936000000001</v>
+        <v>121.51611</v>
       </c>
       <c r="E33" s="2">
-        <v>31.28389</v>
+        <v>31.21087</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2">
-        <v>31.283885999999999</v>
+        <v>31.210871000000001</v>
       </c>
       <c r="I33" s="2">
-        <v>121.519363</v>
+        <v>121.51610599999999</v>
       </c>
       <c r="J33" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K33" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L33" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M33" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N33" s="2">
-        <v>-77.667000000000002</v>
+        <v>-63.667000000000002</v>
       </c>
       <c r="O33" s="2">
         <v>0</v>
       </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-    </row>
-    <row r="34" spans="1:21">
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>5861</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="3">
-        <v>0.54585648148148147</v>
+        <v>0.61148148148148151</v>
       </c>
       <c r="D34" s="2">
-        <v>121.51940999999999</v>
+        <v>121.51613999999999</v>
       </c>
       <c r="E34" s="2">
-        <v>31.28378</v>
+        <v>31.210889999999999</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2">
-        <v>31.283783</v>
+        <v>31.210894</v>
       </c>
       <c r="I34" s="2">
-        <v>121.519409</v>
+        <v>121.516136</v>
       </c>
       <c r="J34" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K34" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L34" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M34" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N34" s="2">
-        <v>-71</v>
+        <v>-63</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
       </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-    </row>
-    <row r="35" spans="1:21">
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>5862</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="3">
-        <v>0.54586805555555562</v>
+        <v>0.61149305555555555</v>
       </c>
       <c r="D35" s="2">
-        <v>121.51946</v>
+        <v>121.51613999999999</v>
       </c>
       <c r="E35" s="2">
-        <v>31.283670000000001</v>
+        <v>31.210889999999999</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2">
-        <v>31.283674000000001</v>
+        <v>31.210894</v>
       </c>
       <c r="I35" s="2">
-        <v>121.519463</v>
+        <v>121.516136</v>
       </c>
       <c r="J35" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K35" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L35" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M35" s="2">
-        <v>61</v>
-      </c>
-      <c r="N35" s="2">
-        <v>-73</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-    </row>
-    <row r="36" spans="1:21">
+        <v>64</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>5863</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C36" s="3">
-        <v>0.54587962962962966</v>
+        <v>0.6115046296296297</v>
       </c>
       <c r="D36" s="2">
-        <v>121.51953</v>
+        <v>121.51611</v>
       </c>
       <c r="E36" s="2">
-        <v>31.283580000000001</v>
+        <v>31.21088</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2">
-        <v>31.283574999999999</v>
+        <v>31.210875999999999</v>
       </c>
       <c r="I36" s="2">
-        <v>121.519531</v>
+        <v>121.516113</v>
       </c>
       <c r="J36" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K36" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L36" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M36" s="2">
-        <v>61</v>
-      </c>
-      <c r="N36" s="2">
-        <v>-76</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-    </row>
-    <row r="37" spans="1:21">
+        <v>64</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>5864</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="3">
-        <v>0.5458912037037037</v>
+        <v>0.61151620370370374</v>
       </c>
       <c r="D37" s="2">
-        <v>121.51958</v>
+        <v>121.51612</v>
       </c>
       <c r="E37" s="2">
-        <v>31.283470000000001</v>
+        <v>31.21088</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2">
-        <v>31.283467999999999</v>
+        <v>31.210875999999999</v>
       </c>
       <c r="I37" s="2">
-        <v>121.51958500000001</v>
+        <v>121.516121</v>
       </c>
       <c r="J37" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K37" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L37" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M37" s="2">
-        <v>61</v>
-      </c>
-      <c r="N37" s="2">
-        <v>-75</v>
-      </c>
-      <c r="O37" s="2">
-        <v>0</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-    </row>
-    <row r="38" spans="1:21">
+        <v>64</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>5865</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="3">
-        <v>0.54590277777777774</v>
+        <v>0.61152777777777778</v>
       </c>
       <c r="D38" s="2">
-        <v>121.51965</v>
+        <v>121.51613999999999</v>
       </c>
       <c r="E38" s="2">
-        <v>31.283349999999999</v>
+        <v>31.210889999999999</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2">
-        <v>31.283349999999999</v>
+        <v>31.210894</v>
       </c>
       <c r="I38" s="2">
-        <v>121.51965300000001</v>
+        <v>121.516144</v>
       </c>
       <c r="J38" s="2">
-        <v>6362</v>
+        <v>6157</v>
       </c>
       <c r="K38" s="2">
-        <v>42002</v>
+        <v>53875</v>
       </c>
       <c r="L38" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M38" s="2">
-        <v>61</v>
-      </c>
-      <c r="N38" s="2">
-        <v>-76.5</v>
-      </c>
-      <c r="O38" s="2">
-        <v>0</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-    </row>
-    <row r="39" spans="1:21">
+        <v>64</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>5866</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="3">
-        <v>0.54591435185185189</v>
+        <v>0.61153935185185182</v>
       </c>
       <c r="D39" s="2">
-        <v>121.51971</v>
+        <v>121.51613999999999</v>
       </c>
       <c r="E39" s="2">
-        <v>31.28323</v>
+        <v>31.210889999999999</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2">
-        <v>31.283232000000002</v>
+        <v>31.210894</v>
       </c>
       <c r="I39" s="2">
-        <v>121.51971399999999</v>
-      </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+        <v>121.516144</v>
+      </c>
+      <c r="J39" s="2">
+        <v>6157</v>
+      </c>
+      <c r="K39" s="2">
+        <v>53875</v>
+      </c>
+      <c r="L39" s="2">
+        <v>27</v>
+      </c>
+      <c r="M39" s="2">
+        <v>64</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:21">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:21">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="2">
+        <v>5867</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.61155092592592586</v>
+      </c>
+      <c r="D40" s="2">
+        <v>121.51612</v>
+      </c>
+      <c r="E40" s="2">
+        <v>31.21088</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2">
+        <v>31.210875999999999</v>
+      </c>
+      <c r="I40" s="2">
+        <v>121.516121</v>
+      </c>
+      <c r="J40" s="2">
+        <v>6157</v>
+      </c>
+      <c r="K40" s="2">
+        <v>53875</v>
+      </c>
+      <c r="L40" s="2">
+        <v>27</v>
+      </c>
+      <c r="M40" s="2">
+        <v>64</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="2">
+        <v>5868</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.61156250000000001</v>
+      </c>
+      <c r="D41" s="2">
+        <v>121.51612</v>
+      </c>
+      <c r="E41" s="2">
+        <v>31.21088</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2">
+        <v>31.210875999999999</v>
+      </c>
+      <c r="I41" s="2">
+        <v>121.516121</v>
+      </c>
+      <c r="J41" s="2">
+        <v>6157</v>
+      </c>
+      <c r="K41" s="2">
+        <v>53875</v>
+      </c>
+      <c r="L41" s="2">
+        <v>27</v>
+      </c>
+      <c r="M41" s="2">
+        <v>64</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="2">
+        <v>5869</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.61157407407407405</v>
+      </c>
+      <c r="D42" s="2">
+        <v>121.51612</v>
+      </c>
+      <c r="E42" s="2">
+        <v>31.21088</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2">
+        <v>31.210875999999999</v>
+      </c>
+      <c r="I42" s="2">
+        <v>121.516121</v>
+      </c>
+      <c r="J42" s="2">
+        <v>6157</v>
+      </c>
+      <c r="K42" s="2">
+        <v>53875</v>
+      </c>
+      <c r="L42" s="2">
+        <v>27</v>
+      </c>
+      <c r="M42" s="2">
+        <v>64</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="2">
+        <v>5870</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.6115856481481482</v>
+      </c>
+      <c r="D43" s="2">
+        <v>121.51613999999999</v>
+      </c>
+      <c r="E43" s="2">
+        <v>31.210889999999999</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2">
+        <v>31.210894</v>
+      </c>
+      <c r="I43" s="2">
+        <v>121.516144</v>
+      </c>
+      <c r="J43" s="2">
+        <v>6157</v>
+      </c>
+      <c r="K43" s="2">
+        <v>53875</v>
+      </c>
+      <c r="L43" s="2">
+        <v>27</v>
+      </c>
+      <c r="M43" s="2">
+        <v>64</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="2">
+        <v>5871</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.61159722222222224</v>
+      </c>
+      <c r="D44" s="2">
+        <v>121.51613</v>
+      </c>
+      <c r="E44" s="2">
+        <v>31.21088</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2">
+        <v>31.210875999999999</v>
+      </c>
+      <c r="I44" s="2">
+        <v>121.51612900000001</v>
+      </c>
+      <c r="J44" s="2">
+        <v>6157</v>
+      </c>
+      <c r="K44" s="2">
+        <v>53875</v>
+      </c>
+      <c r="L44" s="2">
+        <v>27</v>
+      </c>
+      <c r="M44" s="2">
+        <v>64</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="2">
+        <v>5872</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.61160879629629628</v>
+      </c>
+      <c r="D45" s="2">
+        <v>121.51615</v>
+      </c>
+      <c r="E45" s="2">
+        <v>31.21088</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2">
+        <v>31.210878000000001</v>
+      </c>
+      <c r="I45" s="2">
+        <v>121.51615099999999</v>
+      </c>
+      <c r="J45" s="2">
+        <v>6157</v>
+      </c>
+      <c r="K45" s="2">
+        <v>53875</v>
+      </c>
+      <c r="L45" s="2">
+        <v>27</v>
+      </c>
+      <c r="M45" s="2">
+        <v>64</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="2">
+        <v>5873</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.61162037037037031</v>
+      </c>
+      <c r="D46" s="2">
+        <v>121.51618999999999</v>
+      </c>
+      <c r="E46" s="2">
+        <v>31.21088</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2">
+        <v>31.210875999999999</v>
+      </c>
+      <c r="I46" s="2">
+        <v>121.51618999999999</v>
+      </c>
+      <c r="J46" s="2">
+        <v>6157</v>
+      </c>
+      <c r="K46" s="2">
+        <v>53875</v>
+      </c>
+      <c r="L46" s="2">
+        <v>27</v>
+      </c>
+      <c r="M46" s="2">
+        <v>64</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="2">
+        <v>5874</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.61163194444444446</v>
+      </c>
+      <c r="D47" s="2">
+        <v>121.51622</v>
+      </c>
+      <c r="E47" s="2">
+        <v>31.21087</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2">
+        <v>31.210864999999998</v>
+      </c>
+      <c r="I47" s="2">
+        <v>121.51622</v>
+      </c>
+      <c r="J47" s="2">
+        <v>6157</v>
+      </c>
+      <c r="K47" s="2">
+        <v>53875</v>
+      </c>
+      <c r="L47" s="2">
+        <v>27</v>
+      </c>
+      <c r="M47" s="2">
+        <v>64</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="2">
+        <v>5875</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.6116435185185185</v>
+      </c>
+      <c r="D48" s="2">
+        <v>121.51627000000001</v>
+      </c>
+      <c r="E48" s="2">
+        <v>31.21086</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2">
+        <v>31.210858999999999</v>
+      </c>
+      <c r="I48" s="2">
+        <v>121.516266</v>
+      </c>
+      <c r="J48" s="2">
+        <v>6157</v>
+      </c>
+      <c r="K48" s="2">
+        <v>53875</v>
+      </c>
+      <c r="L48" s="2">
+        <v>27</v>
+      </c>
+      <c r="M48" s="2">
+        <v>64</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="2">
+        <v>5876</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.61165509259259265</v>
+      </c>
+      <c r="D49" s="2">
+        <v>121.51634</v>
+      </c>
+      <c r="E49" s="2">
+        <v>31.210840000000001</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2">
+        <v>31.210837999999999</v>
+      </c>
+      <c r="I49" s="2">
+        <v>121.51634199999999</v>
+      </c>
+      <c r="J49" s="2">
+        <v>6157</v>
+      </c>
+      <c r="K49" s="2">
+        <v>53875</v>
+      </c>
+      <c r="L49" s="2">
+        <v>27</v>
+      </c>
+      <c r="M49" s="2">
+        <v>64</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="2">
+        <v>5877</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.61166666666666669</v>
+      </c>
+      <c r="D50" s="2">
+        <v>121.5164</v>
+      </c>
+      <c r="E50" s="2">
+        <v>31.210819999999998</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2">
+        <v>31.210823000000001</v>
+      </c>
+      <c r="I50" s="2">
+        <v>121.516396</v>
+      </c>
+      <c r="J50" s="2">
+        <v>6157</v>
+      </c>
+      <c r="K50" s="2">
+        <v>53875</v>
+      </c>
+      <c r="L50" s="2">
+        <v>27</v>
+      </c>
+      <c r="M50" s="2">
+        <v>64</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="2">
+        <v>5878</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.61167824074074073</v>
+      </c>
+      <c r="D51" s="2">
+        <v>121.51646</v>
+      </c>
+      <c r="E51" s="2">
+        <v>31.210799999999999</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2">
+        <v>31.210799999999999</v>
+      </c>
+      <c r="I51" s="2">
+        <v>121.516464</v>
+      </c>
+      <c r="J51" s="2">
+        <v>6157</v>
+      </c>
+      <c r="K51" s="2">
+        <v>53875</v>
+      </c>
+      <c r="L51" s="2">
+        <v>27</v>
+      </c>
+      <c r="M51" s="2">
+        <v>64</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="2">
+        <v>5879</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.61168981481481477</v>
+      </c>
+      <c r="D52" s="2">
+        <v>121.51654000000001</v>
+      </c>
+      <c r="E52" s="2">
+        <v>31.21077</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2">
+        <v>31.210773</v>
+      </c>
+      <c r="I52" s="2">
+        <v>121.516541</v>
+      </c>
+      <c r="J52" s="2">
+        <v>6157</v>
+      </c>
+      <c r="K52" s="2">
+        <v>53875</v>
+      </c>
+      <c r="L52" s="2">
+        <v>27</v>
+      </c>
+      <c r="M52" s="2">
+        <v>64</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="2">
+        <v>5880</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.61170138888888892</v>
+      </c>
+      <c r="D53" s="2">
+        <v>121.51663000000001</v>
+      </c>
+      <c r="E53" s="2">
+        <v>31.210750000000001</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2">
+        <v>31.210749</v>
+      </c>
+      <c r="I53" s="2">
+        <v>121.516632</v>
+      </c>
+      <c r="J53" s="2">
+        <v>6157</v>
+      </c>
+      <c r="K53" s="2">
+        <v>53875</v>
+      </c>
+      <c r="L53" s="2">
+        <v>27</v>
+      </c>
+      <c r="M53" s="2">
+        <v>64</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="2">
+        <v>5881</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.61171296296296296</v>
+      </c>
+      <c r="D54" s="2">
+        <v>121.51672000000001</v>
+      </c>
+      <c r="E54" s="2">
+        <v>31.210730000000002</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2">
+        <v>31.210732</v>
+      </c>
+      <c r="I54" s="2">
+        <v>121.516724</v>
+      </c>
+      <c r="J54" s="2">
+        <v>6157</v>
+      </c>
+      <c r="K54" s="2">
+        <v>53875</v>
+      </c>
+      <c r="L54" s="2">
+        <v>27</v>
+      </c>
+      <c r="M54" s="2">
+        <v>64</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
